--- a/docs/專題簡報國中乙組決賽名冊.xlsx
+++ b/docs/專題簡報國中乙組決賽名冊.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="165">
   <si>
     <t>序</t>
   </si>
@@ -48,88 +48,160 @@
     <t>專題簡報國中乙組</t>
   </si>
   <si>
+    <t>大甲區日南國中</t>
+  </si>
+  <si>
+    <t>林岱嫻</t>
+  </si>
+  <si>
+    <t>葉芷妘</t>
+  </si>
+  <si>
+    <t>陳隆勝</t>
+  </si>
+  <si>
+    <t>pet93pe3</t>
+  </si>
+  <si>
+    <t>gwh33an3</t>
+  </si>
+  <si>
     <t>大安區大安國中</t>
   </si>
   <si>
+    <t>李瑩昱</t>
+  </si>
+  <si>
+    <t>蔡啟堂</t>
+  </si>
+  <si>
+    <t>s32xb9</t>
+  </si>
+  <si>
+    <t>m81xb9</t>
+  </si>
+  <si>
     <t>周佳怡</t>
   </si>
   <si>
-    <t>李翎甄</t>
-  </si>
-  <si>
-    <t>葉奕君</t>
-  </si>
-  <si>
-    <t>xb77f8</t>
-  </si>
-  <si>
-    <t>y53k6</t>
-  </si>
-  <si>
-    <t>大里區市立大里高中</t>
+    <t>v19sm2</t>
+  </si>
+  <si>
+    <t>kf74k8</t>
+  </si>
+  <si>
+    <t>大里區大里高中</t>
+  </si>
+  <si>
+    <t>陳晏琪</t>
+  </si>
+  <si>
+    <t>黃炘鎂</t>
+  </si>
+  <si>
+    <t>吳秀玲</t>
+  </si>
+  <si>
+    <t>an8dx2</t>
+  </si>
+  <si>
+    <t>myg31bj5</t>
   </si>
   <si>
     <t>林雨璇</t>
   </si>
   <si>
-    <t>林鉦翔</t>
-  </si>
-  <si>
-    <t>吳秀玲</t>
-  </si>
-  <si>
-    <t>pet43e5</t>
-  </si>
-  <si>
-    <t>r3s2</t>
+    <t>鄭荷暄</t>
+  </si>
+  <si>
+    <t>v66e2</t>
+  </si>
+  <si>
+    <t>f91cd3</t>
+  </si>
+  <si>
+    <t>北屯區三光國中</t>
+  </si>
+  <si>
+    <t>陳心安</t>
+  </si>
+  <si>
+    <t>廖翊均</t>
+  </si>
+  <si>
+    <t>卓永祥</t>
+  </si>
+  <si>
+    <t>whp51a2</t>
+  </si>
+  <si>
+    <t>tv58b8</t>
+  </si>
+  <si>
+    <t>北屯區四張犁國中</t>
+  </si>
+  <si>
+    <t>董雅琴</t>
+  </si>
+  <si>
+    <t>洪若洋</t>
+  </si>
+  <si>
+    <t>陳郁宸</t>
+  </si>
+  <si>
+    <t>smy6xb2</t>
+  </si>
+  <si>
+    <t>tv52y7</t>
   </si>
   <si>
     <t>北區立人國中</t>
   </si>
   <si>
-    <t>林怡萱</t>
-  </si>
-  <si>
-    <t>徐梓薰</t>
+    <t>陳泓志</t>
+  </si>
+  <si>
+    <t>張凱崴</t>
   </si>
   <si>
     <t>魏金羊</t>
   </si>
   <si>
-    <t>ncd30w8</t>
-  </si>
-  <si>
-    <t>s11hp6</t>
-  </si>
-  <si>
-    <t>莊喻潔</t>
-  </si>
-  <si>
-    <t>蔡盈柔</t>
-  </si>
-  <si>
-    <t>bj16m5</t>
-  </si>
-  <si>
-    <t>cd49f7</t>
+    <t>gwh78et6</t>
+  </si>
+  <si>
+    <t>wh97pe4</t>
   </si>
   <si>
     <t>北區曉明女中</t>
   </si>
   <si>
-    <t>劉庭瑜</t>
-  </si>
-  <si>
-    <t>張美妮</t>
+    <t>陳潔伊</t>
+  </si>
+  <si>
+    <t>陳鳳婷</t>
   </si>
   <si>
     <t>劉國聲</t>
   </si>
   <si>
-    <t>cd86gw9</t>
-  </si>
-  <si>
-    <t>r76cd1</t>
+    <t>etv80wh3</t>
+  </si>
+  <si>
+    <t>hp39cd5</t>
+  </si>
+  <si>
+    <t>陳庭琪</t>
+  </si>
+  <si>
+    <t>王沛媛</t>
+  </si>
+  <si>
+    <t>bjk54kf5</t>
+  </si>
+  <si>
+    <t>wh68et9</t>
   </si>
   <si>
     <t>外埔區外埔國中</t>
@@ -141,121 +213,103 @@
     <t>林麗貞</t>
   </si>
   <si>
-    <t>wh56w2</t>
-  </si>
-  <si>
-    <t>gwh29x2</t>
-  </si>
-  <si>
-    <t>石岡區石岡國中</t>
-  </si>
-  <si>
-    <t>林季平</t>
-  </si>
-  <si>
-    <t>張宇翔</t>
-  </si>
-  <si>
-    <t>詹耀宗</t>
-  </si>
-  <si>
-    <t>myg13et2</t>
-  </si>
-  <si>
-    <t>nc25yg7</t>
-  </si>
-  <si>
-    <t>西屯區中山國中</t>
-  </si>
-  <si>
-    <t>翁慧霖</t>
-  </si>
-  <si>
-    <t>葉瑋恩</t>
-  </si>
-  <si>
-    <t>何孟杰</t>
-  </si>
-  <si>
-    <t>anc94tv6</t>
-  </si>
-  <si>
-    <t>bj5sm6</t>
-  </si>
-  <si>
-    <t>許又蘋</t>
-  </si>
-  <si>
-    <t>謝霈妍</t>
-  </si>
-  <si>
-    <t>w91x2</t>
-  </si>
-  <si>
-    <t>fr89gw4</t>
+    <t>rsm66w6</t>
+  </si>
+  <si>
+    <t>s96r6</t>
+  </si>
+  <si>
+    <t>羅文妤</t>
+  </si>
+  <si>
+    <t>pe44tv4</t>
+  </si>
+  <si>
+    <t>nc31cd2</t>
+  </si>
+  <si>
+    <t>后里區后里國中</t>
+  </si>
+  <si>
+    <t>羅晨宸</t>
+  </si>
+  <si>
+    <t>高佩妤</t>
+  </si>
+  <si>
+    <t>李秦宇</t>
+  </si>
+  <si>
+    <t>b11xb4</t>
+  </si>
+  <si>
+    <t>ygw86m5</t>
+  </si>
+  <si>
+    <t>西屯區安和國中</t>
+  </si>
+  <si>
+    <t>林佳霓</t>
+  </si>
+  <si>
+    <t>邱書毅</t>
+  </si>
+  <si>
+    <t>梁育誠</t>
+  </si>
+  <si>
+    <t>a66sm7</t>
+  </si>
+  <si>
+    <t>fr31s3</t>
   </si>
   <si>
     <t>西屯區至善國中</t>
   </si>
   <si>
-    <t>李伊雯</t>
-  </si>
-  <si>
-    <t>王睿琳</t>
+    <t>凃家悅</t>
+  </si>
+  <si>
+    <t>陳香秀</t>
   </si>
   <si>
     <t>曾嘉建</t>
   </si>
   <si>
-    <t>h64h7</t>
-  </si>
-  <si>
-    <t>tv73e4</t>
+    <t>my86sm7</t>
+  </si>
+  <si>
+    <t>cd34d1</t>
   </si>
   <si>
     <t>沙鹿區北勢國中</t>
   </si>
   <si>
-    <t>王昱淇</t>
-  </si>
-  <si>
-    <t>陳柔珊</t>
+    <t>陳倩褕</t>
+  </si>
+  <si>
+    <t>蘇梓瑩</t>
   </si>
   <si>
     <t>杜建勳</t>
   </si>
   <si>
-    <t>s90xb2</t>
-  </si>
-  <si>
-    <t>h25k6</t>
-  </si>
-  <si>
-    <t>陳倩褕</t>
-  </si>
-  <si>
-    <t>蘇梓瑩</t>
-  </si>
-  <si>
-    <t>xb48dx4</t>
-  </si>
-  <si>
-    <t>p28c2</t>
-  </si>
-  <si>
-    <t>沙鹿區鹿寮國中</t>
-  </si>
-  <si>
-    <t>陳昱傑</t>
-  </si>
-  <si>
-    <t>賴昭仁</t>
-  </si>
-  <si>
-    <t>dx2yg9</t>
-  </si>
-  <si>
-    <t>pet43g2</t>
+    <t>kf43an7</t>
+  </si>
+  <si>
+    <t>an58n3</t>
+  </si>
+  <si>
+    <t>張宏偉</t>
+  </si>
+  <si>
+    <t>張洧誠</t>
+  </si>
+  <si>
+    <t>dx49rs4</t>
+  </si>
+  <si>
+    <t>c73sm4</t>
   </si>
   <si>
     <t>東區育英國中</t>
@@ -270,247 +324,178 @@
     <t>鄭守喻</t>
   </si>
   <si>
-    <t>xb32c8</t>
-  </si>
-  <si>
-    <t>d93p6</t>
+    <t>tv43h5</t>
+  </si>
+  <si>
+    <t>gwh88p1</t>
+  </si>
+  <si>
+    <t>洪筠茹</t>
+  </si>
+  <si>
+    <t>張凌</t>
+  </si>
+  <si>
+    <t>ncd75j4</t>
+  </si>
+  <si>
+    <t>ncd12d5</t>
   </si>
   <si>
     <t>南屯區大墩國中</t>
   </si>
   <si>
-    <t>陳禹安</t>
-  </si>
-  <si>
-    <t>鍾明蓁</t>
+    <t>張喬欣</t>
   </si>
   <si>
     <t>鍾承翰</t>
   </si>
   <si>
-    <t>bjk87n9</t>
-  </si>
-  <si>
-    <t>xbj74xb6</t>
+    <t>sm41dx9</t>
+  </si>
+  <si>
+    <t>sm37v7</t>
+  </si>
+  <si>
+    <t>南屯區惠文高中</t>
+  </si>
+  <si>
+    <t>洪梓芸</t>
+  </si>
+  <si>
+    <t>吳孟唐</t>
+  </si>
+  <si>
+    <t>鄭仁豪</t>
+  </si>
+  <si>
+    <t>hpe21p4</t>
+  </si>
+  <si>
+    <t>my61a4</t>
   </si>
   <si>
     <t>南區四育國中</t>
   </si>
   <si>
-    <t>陳乃華</t>
-  </si>
-  <si>
-    <t>黃馨儀</t>
-  </si>
-  <si>
-    <t>翁禎吟</t>
-  </si>
-  <si>
-    <t>dx53et7</t>
-  </si>
-  <si>
-    <t>et88cd8</t>
-  </si>
-  <si>
-    <t>烏日區烏日國中</t>
-  </si>
-  <si>
-    <t>張立昕</t>
-  </si>
-  <si>
-    <t>張淑貞</t>
-  </si>
-  <si>
-    <t>hp47a3</t>
-  </si>
-  <si>
-    <t>dx11hp4</t>
+    <t>王力恩</t>
+  </si>
+  <si>
+    <t>黃碩鉉</t>
+  </si>
+  <si>
+    <t>許秋蘭</t>
+  </si>
+  <si>
+    <t>fr60e8</t>
+  </si>
+  <si>
+    <t>rs10pe8</t>
+  </si>
+  <si>
+    <t>張芳瑀</t>
+  </si>
+  <si>
+    <t>江欣霓</t>
+  </si>
+  <si>
+    <t>xb65c1</t>
+  </si>
+  <si>
+    <t>hpe5x8</t>
   </si>
   <si>
     <t>烏日區溪南國中</t>
   </si>
   <si>
-    <t>林俐妤</t>
-  </si>
-  <si>
-    <t>廖佳琳</t>
+    <t>林冠吟</t>
+  </si>
+  <si>
+    <t>黃佩瑜</t>
   </si>
   <si>
     <t>胡啟有</t>
   </si>
   <si>
-    <t>k50t2</t>
-  </si>
-  <si>
-    <t>j69w1</t>
-  </si>
-  <si>
-    <t>鄒幸均</t>
-  </si>
-  <si>
-    <t>蕭譓贏</t>
-  </si>
-  <si>
-    <t>xb49v2</t>
-  </si>
-  <si>
-    <t>tv59my1</t>
-  </si>
-  <si>
-    <t>梧棲區梧棲國中</t>
-  </si>
-  <si>
-    <t>楊駿堃</t>
-  </si>
-  <si>
-    <t>徐逸翔</t>
-  </si>
-  <si>
-    <t>陳有量</t>
-  </si>
-  <si>
-    <t>rsm14nc1</t>
-  </si>
-  <si>
-    <t>smy79h5</t>
-  </si>
-  <si>
-    <t>清水區清泉國中</t>
-  </si>
-  <si>
-    <t>林芳如</t>
-  </si>
-  <si>
-    <t>黃宇岑</t>
-  </si>
-  <si>
-    <t>林清煙</t>
-  </si>
-  <si>
-    <t>x90s1</t>
-  </si>
-  <si>
-    <t>bjk91an9</t>
-  </si>
-  <si>
-    <t>蘇晏加</t>
-  </si>
-  <si>
-    <t>黃婕瑜</t>
-  </si>
-  <si>
-    <t>v34et4</t>
-  </si>
-  <si>
-    <t>p7j2</t>
-  </si>
-  <si>
-    <t>新社區新社高中</t>
-  </si>
-  <si>
-    <t>蘇信宇</t>
-  </si>
-  <si>
-    <t>李施涵</t>
-  </si>
-  <si>
-    <t>吳盈昇</t>
-  </si>
-  <si>
-    <t>cd46t4</t>
-  </si>
-  <si>
-    <t>pe92nc6</t>
+    <t>wh28wh7</t>
+  </si>
+  <si>
+    <t>g48s8</t>
+  </si>
+  <si>
+    <t>潭子區弘文高中</t>
+  </si>
+  <si>
+    <t>高苡甄</t>
+  </si>
+  <si>
+    <t>張秀玲</t>
+  </si>
+  <si>
+    <t>gw69e1</t>
+  </si>
+  <si>
+    <t>hp36fr1</t>
   </si>
   <si>
     <t>龍井區四箴國中</t>
   </si>
   <si>
-    <t>趙盈薰</t>
-  </si>
-  <si>
-    <t>林卉恩</t>
-  </si>
-  <si>
-    <t>張文欽</t>
-  </si>
-  <si>
-    <t>et56h7</t>
-  </si>
-  <si>
-    <t>bj20m4</t>
-  </si>
-  <si>
-    <t>童中志</t>
-  </si>
-  <si>
-    <t>吳敏菖</t>
-  </si>
-  <si>
-    <t>kf16w6</t>
-  </si>
-  <si>
-    <t>n12g4</t>
+    <t>劉品妃</t>
+  </si>
+  <si>
+    <t>林育貞</t>
+  </si>
+  <si>
+    <t>林永森</t>
+  </si>
+  <si>
+    <t>v22h2</t>
+  </si>
+  <si>
+    <t>n86gw5</t>
+  </si>
+  <si>
+    <t>陳俊安</t>
+  </si>
+  <si>
+    <t>whp18d9</t>
+  </si>
+  <si>
+    <t>x14kf4</t>
   </si>
   <si>
     <t>龍井區龍井國中</t>
   </si>
   <si>
-    <t>陳景智</t>
-  </si>
-  <si>
-    <t>張至寬</t>
-  </si>
-  <si>
-    <t>陳殷諄</t>
-  </si>
-  <si>
-    <t>t24hp6</t>
-  </si>
-  <si>
-    <t>bj35w4</t>
-  </si>
-  <si>
-    <t>江亭葦</t>
-  </si>
-  <si>
-    <t>a75a6</t>
-  </si>
-  <si>
-    <t>dx12s5</t>
+    <t>郭書廷</t>
+  </si>
+  <si>
+    <t>陳宜琳</t>
+  </si>
+  <si>
+    <t>梁永和</t>
+  </si>
+  <si>
+    <t>yg20xb1</t>
+  </si>
+  <si>
+    <t>hpe96sm7</t>
   </si>
   <si>
     <t>龍井區龍津高中</t>
   </si>
   <si>
-    <t>陳文俊</t>
-  </si>
-  <si>
-    <t>陳柏安</t>
-  </si>
-  <si>
-    <t>尤彥清</t>
-  </si>
-  <si>
-    <t>r34sm6</t>
-  </si>
-  <si>
-    <t>p52dx4</t>
-  </si>
-  <si>
-    <t>豐原區豐陽國中</t>
-  </si>
-  <si>
-    <t>劉凡綺</t>
-  </si>
-  <si>
-    <t>劉家浩</t>
-  </si>
-  <si>
-    <t>jkf30bj7</t>
-  </si>
-  <si>
-    <t>et20bj3</t>
+    <t>趙芷微</t>
+  </si>
+  <si>
+    <t>王筱婷</t>
+  </si>
+  <si>
+    <t>sm68my8</t>
+  </si>
+  <si>
+    <t>m10f8</t>
   </si>
   <si>
     <t>霧峰區光復國中小</t>
@@ -519,13 +504,16 @@
     <t>吳嘉敏</t>
   </si>
   <si>
+    <t>吳品錞</t>
+  </si>
+  <si>
     <t>蔡進雄</t>
   </si>
   <si>
-    <t>s83sm5</t>
-  </si>
-  <si>
-    <t>fr13b8</t>
+    <t>f54sm7</t>
+  </si>
+  <si>
+    <t>etv40hp9</t>
   </si>
 </sst>
 </file>
@@ -1526,12 +1514,11 @@
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1599,17 +1586,15 @@
       <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1620,22 +1605,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1646,22 +1629,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1672,22 +1655,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1698,20 +1681,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1722,22 +1707,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1748,22 +1733,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1774,22 +1759,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1800,22 +1785,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="F11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1826,22 +1811,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1852,22 +1835,20 @@
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="H13" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1878,20 +1859,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1902,22 +1885,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1928,22 +1911,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1954,22 +1937,22 @@
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1980,20 +1963,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="F18" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2004,22 +1989,22 @@
         <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2030,22 +2015,22 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="H20" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2056,22 +2041,20 @@
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>114</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2082,22 +2065,22 @@
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2111,19 +2094,19 @@
         <v>118</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2134,22 +2117,22 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2160,22 +2143,22 @@
         <v>8</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2189,19 +2172,17 @@
         <v>134</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>141</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="H26" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2212,22 +2193,22 @@
         <v>8</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2238,20 +2219,20 @@
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2262,22 +2243,22 @@
         <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2288,20 +2269,20 @@
         <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2312,20 +2293,22 @@
         <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
